--- a/data/test4.xlsx
+++ b/data/test4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4194499E-28F4-4BE7-B6E2-F93033EBB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1DA97-9EFB-4944-8457-9F55883C1109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3370" yWindow="1260" windowWidth="15470" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6912" yWindow="624" windowWidth="15420" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test2" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A292944F-6546-4985-B498-F5A731D70F23}" type="CELLRANGE">
+                    <a:fld id="{9DD4C4FB-F8D1-41D7-9183-6C82C4607272}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -849,7 +849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BA1C70E-E86D-4918-87D5-D83398D79228}" type="CELLRANGE">
+                    <a:fld id="{41DD5DCD-169E-4647-9264-D48438E8582F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -882,7 +882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2C6EDE9-4785-4864-8805-6099B37FC833}" type="CELLRANGE">
+                    <a:fld id="{608D9358-E998-4013-97CE-D925971E80F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -915,7 +915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F851A1DF-7F56-43F3-90D3-E0AF7AB5BF9B}" type="CELLRANGE">
+                    <a:fld id="{E6CBA2DC-A240-40F9-AE99-E78AEFFB019C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -948,7 +948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CC281E8-3309-4F83-AD10-60176614F5C1}" type="CELLRANGE">
+                    <a:fld id="{F71DF9C3-93DD-4510-9BCE-97E8C8A8D84A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1193,7 +1193,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB6A29FB-C915-40A5-B9DD-6EE0D80A832C}" type="CELLRANGE">
+                    <a:fld id="{397AC13F-605A-408E-895D-F03FA9CD94FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1226,7 +1226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21CBCD9A-5122-4C51-9B02-70686A82D31B}" type="CELLRANGE">
+                    <a:fld id="{435DD2A6-EFEC-48F0-ADA2-B36E876CF5C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1259,7 +1259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A52FF4C5-109F-44A1-AA82-604A821031D0}" type="CELLRANGE">
+                    <a:fld id="{DEBAEAA3-7457-4482-80BF-648368C7AFDF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1292,7 +1292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{034C583C-65DD-4024-A13F-C8DD8F484507}" type="CELLRANGE">
+                    <a:fld id="{C436C8B6-15F7-49DF-8423-8E683C791B6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1325,7 +1325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51A113BB-2E92-462A-A370-6AD46FA27ADC}" type="CELLRANGE">
+                    <a:fld id="{ED74F61F-7FEA-4A9E-8BB0-7A6D4E64CEB4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1358,7 +1358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EF3BB16-6688-4BA3-8771-721381A25917}" type="CELLRANGE">
+                    <a:fld id="{FC562870-66E5-4EA5-9BFC-B21D7E14892B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2540,8 +2540,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -2564,8 +2564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5289550" y="793750"/>
-          <a:ext cx="742950" cy="1657350"/>
+          <a:off x="4693920" y="788670"/>
+          <a:ext cx="1323340" cy="1645920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2678,8 +2678,8 @@
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2696,8 +2696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6788150" y="514350"/>
-          <a:ext cx="546100" cy="1695450"/>
+          <a:off x="6772910" y="511810"/>
+          <a:ext cx="1266190" cy="1682750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,13 +3042,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
